--- a/data/trans_orig/P15B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA276F35-47B4-4D73-BECC-49892B28F720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4199F52-BFDB-4E43-B38D-70F9239EF34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D2C0CBCF-87ED-4E2F-83A3-F8395549D7C2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9D084E92-12E3-4817-8D1F-E1D8FF8D5345}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="932">
   <si>
     <t>Población según el lugar del último accidente en 2007 (Tasa respuesta: 3,21%)</t>
   </si>
@@ -2222,613 +2222,619 @@
     <t>1,21%</t>
   </si>
   <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>7,11%</t>
   </si>
   <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
   </si>
   <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
   </si>
   <si>
     <t>7,04%</t>
   </si>
   <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
   </si>
   <si>
     <t>11,88%</t>
   </si>
   <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
   </si>
   <si>
     <t>11,47%</t>
   </si>
   <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
   </si>
 </sst>
 </file>
@@ -3240,7 +3246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A4DBA0-5DB3-484D-AD21-BBCF6FF1C266}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A31B11-809E-4150-A0D8-06027D883AAC}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5419,7 +5425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81814708-F330-4C22-B541-C85475B0CBF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71200A43-E955-49BF-AF22-F6BC5B8015AC}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7598,7 +7604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A1C752-9987-43FB-93AD-A38187D7B958}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D432AD-6B37-4878-805F-B69080A43912}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9777,7 +9783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0890F3E0-89B0-48D1-8D77-F973EC4F6431}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5EBC4D-415C-4147-923C-B700749231B1}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9949,13 +9955,13 @@
         <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>1709</v>
+        <v>1837</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>727</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>247</v>
+        <v>492</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>728</v>
@@ -9964,10 +9970,10 @@
         <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>2365</v>
+        <v>2126</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>729</v>
@@ -9979,16 +9985,16 @@
         <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>4074</v>
+        <v>3962</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>732</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -10000,10 +10006,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>979</v>
+        <v>923</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>732</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
@@ -10015,31 +10021,31 @@
         <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>4469</v>
+        <v>4095</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>734</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>441</v>
+        <v>615</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>434</v>
+        <v>735</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
       </c>
       <c r="N6" s="7">
-        <v>5448</v>
+        <v>5019</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -10051,46 +10057,46 @@
         <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>5349</v>
+        <v>5674</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>351</v>
+        <v>739</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>740</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>738</v>
+        <v>634</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>1392</v>
+        <v>1296</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>739</v>
+        <v>561</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>741</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>6741</v>
+        <v>6971</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>203</v>
+        <v>742</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -10102,46 +10108,46 @@
         <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>5737</v>
+        <v>5542</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
       </c>
       <c r="I8" s="7">
-        <v>13166</v>
+        <v>12248</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="M8" s="7">
         <v>32</v>
       </c>
       <c r="N8" s="7">
-        <v>18903</v>
+        <v>17790</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -10153,46 +10159,46 @@
         <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>2391</v>
+        <v>2442</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
       </c>
       <c r="I9" s="7">
-        <v>2055</v>
+        <v>1881</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>755</v>
+        <v>729</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
       </c>
       <c r="N9" s="7">
-        <v>4445</v>
+        <v>4323</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>452</v>
+        <v>390</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>739</v>
+        <v>561</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -10204,46 +10210,46 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>5046</v>
+        <v>5009</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>694</v>
+        <v>760</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>2738</v>
+        <v>2682</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>644</v>
+        <v>516</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>466</v>
+        <v>764</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
       </c>
       <c r="N10" s="7">
-        <v>7784</v>
+        <v>7691</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>712</v>
+        <v>765</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>626</v>
+        <v>766</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -10306,46 +10312,46 @@
         <v>25</v>
       </c>
       <c r="D12" s="7">
-        <v>15039</v>
+        <v>14178</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="H12" s="7">
         <v>111</v>
       </c>
       <c r="I12" s="7">
-        <v>60206</v>
+        <v>55226</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="M12" s="7">
         <v>136</v>
       </c>
       <c r="N12" s="7">
-        <v>75245</v>
+        <v>69405</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -10357,7 +10363,7 @@
         <v>53</v>
       </c>
       <c r="D13" s="7">
-        <v>36251</v>
+        <v>35606</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>75</v>
@@ -10372,7 +10378,7 @@
         <v>157</v>
       </c>
       <c r="I13" s="7">
-        <v>86390</v>
+        <v>79554</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>75</v>
@@ -10387,7 +10393,7 @@
         <v>210</v>
       </c>
       <c r="N13" s="7">
-        <v>122640</v>
+        <v>115160</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -10419,37 +10425,37 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>653</v>
+        <v>586</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>600</v>
+        <v>778</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>636</v>
+        <v>779</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>653</v>
+        <v>586</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>772</v>
+        <v>378</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>24</v>
+        <v>780</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -10461,46 +10467,46 @@
         <v>6</v>
       </c>
       <c r="D15" s="7">
-        <v>5094</v>
+        <v>5248</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>773</v>
+        <v>377</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="H15" s="7">
         <v>7</v>
       </c>
       <c r="I15" s="7">
-        <v>8261</v>
+        <v>7197</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>776</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>370</v>
+        <v>783</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="M15" s="7">
         <v>13</v>
       </c>
       <c r="N15" s="7">
-        <v>13355</v>
+        <v>12445</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>203</v>
+        <v>785</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>778</v>
+        <v>648</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -10512,46 +10518,46 @@
         <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>7815</v>
+        <v>9646</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>505</v>
+        <v>666</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
       </c>
       <c r="I16" s="7">
-        <v>15024</v>
+        <v>13296</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
       </c>
       <c r="N16" s="7">
-        <v>22839</v>
+        <v>22942</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>593</v>
+        <v>792</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>785</v>
+        <v>554</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>675</v>
+        <v>793</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -10563,46 +10569,46 @@
         <v>18</v>
       </c>
       <c r="D17" s="7">
-        <v>17137</v>
+        <v>16486</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>787</v>
+        <v>34</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
       </c>
       <c r="I17" s="7">
-        <v>11456</v>
+        <v>10659</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>586</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
       </c>
       <c r="N17" s="7">
-        <v>28594</v>
+        <v>27145</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>282</v>
+        <v>225</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -10614,46 +10620,46 @@
         <v>21</v>
       </c>
       <c r="D18" s="7">
-        <v>19407</v>
+        <v>19013</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>337</v>
+        <v>800</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="H18" s="7">
         <v>26</v>
       </c>
       <c r="I18" s="7">
-        <v>18676</v>
+        <v>17467</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
       </c>
       <c r="N18" s="7">
-        <v>38083</v>
+        <v>36479</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>619</v>
+        <v>807</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -10665,46 +10671,46 @@
         <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>13159</v>
+        <v>12139</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>800</v>
+        <v>593</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>801</v>
+        <v>556</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>809</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
       </c>
       <c r="I19" s="7">
-        <v>5144</v>
+        <v>4870</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>276</v>
+        <v>810</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>192</v>
+        <v>737</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>484</v>
+        <v>623</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
       </c>
       <c r="N19" s="7">
-        <v>18303</v>
+        <v>17008</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10716,46 +10722,46 @@
         <v>33</v>
       </c>
       <c r="D20" s="7">
-        <v>38779</v>
+        <v>37466</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>804</v>
+        <v>55</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
       </c>
       <c r="I20" s="7">
-        <v>13059</v>
+        <v>11766</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>660</v>
+        <v>817</v>
       </c>
       <c r="M20" s="7">
         <v>48</v>
       </c>
       <c r="N20" s="7">
-        <v>51838</v>
+        <v>49232</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>809</v>
+        <v>818</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>811</v>
+        <v>642</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10767,46 +10773,46 @@
         <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>1277</v>
+        <v>1265</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>812</v>
+        <v>820</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
       </c>
       <c r="I21" s="7">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>814</v>
+        <v>667</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>541</v>
+        <v>298</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
       </c>
       <c r="N21" s="7">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>729</v>
+        <v>822</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>644</v>
+        <v>823</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10818,46 +10824,46 @@
         <v>28</v>
       </c>
       <c r="D22" s="7">
-        <v>29336</v>
+        <v>27850</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>815</v>
+        <v>824</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>817</v>
+        <v>826</v>
       </c>
       <c r="H22" s="7">
         <v>66</v>
       </c>
       <c r="I22" s="7">
-        <v>38095</v>
+        <v>35604</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>818</v>
+        <v>252</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="M22" s="7">
         <v>94</v>
       </c>
       <c r="N22" s="7">
-        <v>67431</v>
+        <v>63454</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>209</v>
+        <v>829</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10869,7 +10875,7 @@
         <v>124</v>
       </c>
       <c r="D23" s="7">
-        <v>132005</v>
+        <v>129113</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>75</v>
@@ -10884,7 +10890,7 @@
         <v>147</v>
       </c>
       <c r="I23" s="7">
-        <v>110864</v>
+        <v>101957</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>75</v>
@@ -10899,7 +10905,7 @@
         <v>271</v>
       </c>
       <c r="N23" s="7">
-        <v>242869</v>
+        <v>231070</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>75</v>
@@ -10931,37 +10937,37 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>823</v>
+        <v>832</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
       </c>
       <c r="I24" s="7">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>824</v>
+        <v>781</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>825</v>
+        <v>179</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
       </c>
       <c r="N24" s="7">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>612</v>
+        <v>834</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10973,46 +10979,46 @@
         <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>709</v>
+        <v>620</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>828</v>
+        <v>836</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>2792</v>
+        <v>2535</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>379</v>
+        <v>838</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
       </c>
       <c r="N25" s="7">
-        <v>3500</v>
+        <v>3155</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>734</v>
+        <v>234</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>831</v>
+        <v>262</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>832</v>
+        <v>619</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -11024,46 +11030,46 @@
         <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>2389</v>
+        <v>2517</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>732</v>
+        <v>840</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
       </c>
       <c r="I26" s="7">
-        <v>2366</v>
+        <v>2129</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>59</v>
+        <v>843</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>835</v>
+        <v>844</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
       </c>
       <c r="N26" s="7">
-        <v>4755</v>
+        <v>4646</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>836</v>
+        <v>845</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>837</v>
+        <v>116</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -11075,46 +11081,46 @@
         <v>7</v>
       </c>
       <c r="D27" s="7">
-        <v>9903</v>
+        <v>10275</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>839</v>
+        <v>847</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
       <c r="H27" s="7">
         <v>6</v>
       </c>
       <c r="I27" s="7">
-        <v>3189</v>
+        <v>3004</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>449</v>
+        <v>851</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>843</v>
+        <v>852</v>
       </c>
       <c r="M27" s="7">
         <v>13</v>
       </c>
       <c r="N27" s="7">
-        <v>13092</v>
+        <v>13279</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>844</v>
+        <v>853</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>845</v>
+        <v>854</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -11126,46 +11132,46 @@
         <v>3</v>
       </c>
       <c r="D28" s="7">
-        <v>1759</v>
+        <v>1798</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>847</v>
+        <v>856</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>848</v>
+        <v>857</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>849</v>
+        <v>858</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
       </c>
       <c r="I28" s="7">
-        <v>5397</v>
+        <v>5073</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>850</v>
+        <v>859</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>851</v>
+        <v>860</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>852</v>
+        <v>861</v>
       </c>
       <c r="M28" s="7">
         <v>12</v>
       </c>
       <c r="N28" s="7">
-        <v>7156</v>
+        <v>6871</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>854</v>
+        <v>863</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>855</v>
+        <v>864</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -11177,46 +11183,46 @@
         <v>8</v>
       </c>
       <c r="D29" s="7">
-        <v>6562</v>
+        <v>6379</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>856</v>
+        <v>865</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>857</v>
+        <v>866</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>858</v>
+        <v>867</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
       </c>
       <c r="I29" s="7">
-        <v>5414</v>
+        <v>4951</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>859</v>
+        <v>868</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>621</v>
+        <v>30</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>645</v>
+        <v>869</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
       </c>
       <c r="N29" s="7">
-        <v>11976</v>
+        <v>11330</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>860</v>
+        <v>397</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>861</v>
+        <v>870</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>605</v>
+        <v>871</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -11228,46 +11234,46 @@
         <v>2</v>
       </c>
       <c r="D30" s="7">
-        <v>3178</v>
+        <v>2828</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>157</v>
+        <v>872</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>862</v>
+        <v>873</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
       </c>
       <c r="I30" s="7">
-        <v>1495</v>
+        <v>1323</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>863</v>
+        <v>874</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>864</v>
+        <v>875</v>
       </c>
       <c r="M30" s="7">
         <v>4</v>
       </c>
       <c r="N30" s="7">
-        <v>4672</v>
+        <v>4151</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>865</v>
+        <v>395</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>866</v>
+        <v>697</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -11288,7 +11294,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>823</v>
+        <v>832</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -11318,7 +11324,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>868</v>
+        <v>737</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -11330,46 +11336,46 @@
         <v>9</v>
       </c>
       <c r="D32" s="7">
-        <v>9655</v>
+        <v>8810</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>869</v>
+        <v>827</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="H32" s="7">
         <v>20</v>
       </c>
       <c r="I32" s="7">
-        <v>12529</v>
+        <v>11439</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="M32" s="7">
         <v>29</v>
       </c>
       <c r="N32" s="7">
-        <v>22184</v>
+        <v>20249</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>480</v>
+        <v>883</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>876</v>
+        <v>884</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -11381,7 +11387,7 @@
         <v>33</v>
       </c>
       <c r="D33" s="7">
-        <v>34154</v>
+        <v>33226</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>75</v>
@@ -11396,7 +11402,7 @@
         <v>53</v>
       </c>
       <c r="I33" s="7">
-        <v>33616</v>
+        <v>30866</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>75</v>
@@ -11411,7 +11417,7 @@
         <v>86</v>
       </c>
       <c r="N33" s="7">
-        <v>67770</v>
+        <v>64092</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>75</v>
@@ -11449,7 +11455,7 @@
         <v>2</v>
       </c>
       <c r="I34" s="7">
-        <v>1087</v>
+        <v>997</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>247</v>
@@ -11458,22 +11464,22 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>713</v>
+        <v>447</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
       </c>
       <c r="N34" s="7">
-        <v>1087</v>
+        <v>997</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>378</v>
+        <v>885</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>269</v>
+        <v>886</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -11485,46 +11491,46 @@
         <v>10</v>
       </c>
       <c r="D35" s="7">
-        <v>7512</v>
+        <v>7705</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>279</v>
+        <v>887</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>79</v>
+        <v>888</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>877</v>
+        <v>889</v>
       </c>
       <c r="H35" s="7">
         <v>15</v>
       </c>
       <c r="I35" s="7">
-        <v>13417</v>
+        <v>11858</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>878</v>
+        <v>287</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>177</v>
+        <v>890</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>879</v>
+        <v>891</v>
       </c>
       <c r="M35" s="7">
         <v>25</v>
       </c>
       <c r="N35" s="7">
-        <v>20929</v>
+        <v>19563</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>880</v>
+        <v>892</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>881</v>
+        <v>670</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>882</v>
+        <v>893</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -11536,46 +11542,46 @@
         <v>10</v>
       </c>
       <c r="D36" s="7">
-        <v>11183</v>
+        <v>13086</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>883</v>
+        <v>894</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>884</v>
+        <v>15</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>708</v>
+        <v>895</v>
       </c>
       <c r="H36" s="7">
         <v>26</v>
       </c>
       <c r="I36" s="7">
-        <v>21858</v>
+        <v>19520</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>681</v>
+        <v>782</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>756</v>
+        <v>896</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
       <c r="M36" s="7">
         <v>36</v>
       </c>
       <c r="N36" s="7">
-        <v>33041</v>
+        <v>32607</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>886</v>
+        <v>898</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>887</v>
+        <v>266</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>888</v>
+        <v>899</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11587,46 +11593,46 @@
         <v>30</v>
       </c>
       <c r="D37" s="7">
-        <v>32389</v>
+        <v>32435</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>889</v>
+        <v>311</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>404</v>
+        <v>900</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="H37" s="7">
         <v>17</v>
       </c>
       <c r="I37" s="7">
-        <v>16037</v>
+        <v>14959</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
       <c r="M37" s="7">
         <v>47</v>
       </c>
       <c r="N37" s="7">
-        <v>48426</v>
+        <v>47394</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>896</v>
+        <v>906</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11638,46 +11644,46 @@
         <v>33</v>
       </c>
       <c r="D38" s="7">
-        <v>26903</v>
+        <v>26352</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>602</v>
+        <v>907</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>897</v>
+        <v>908</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>898</v>
+        <v>909</v>
       </c>
       <c r="H38" s="7">
         <v>58</v>
       </c>
       <c r="I38" s="7">
-        <v>37239</v>
+        <v>34788</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>899</v>
+        <v>809</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>900</v>
+        <v>56</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>901</v>
+        <v>604</v>
       </c>
       <c r="M38" s="7">
         <v>91</v>
       </c>
       <c r="N38" s="7">
-        <v>64142</v>
+        <v>61140</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>898</v>
+        <v>468</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -11689,46 +11695,46 @@
         <v>24</v>
       </c>
       <c r="D39" s="7">
-        <v>22113</v>
+        <v>20960</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>905</v>
+        <v>395</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>906</v>
+        <v>913</v>
       </c>
       <c r="H39" s="7">
         <v>19</v>
       </c>
       <c r="I39" s="7">
-        <v>12612</v>
+        <v>11701</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>597</v>
+        <v>338</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>907</v>
+        <v>914</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>908</v>
+        <v>196</v>
       </c>
       <c r="M39" s="7">
         <v>43</v>
       </c>
       <c r="N39" s="7">
-        <v>34725</v>
+        <v>32661</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>910</v>
+        <v>597</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -11740,46 +11746,46 @@
         <v>40</v>
       </c>
       <c r="D40" s="7">
-        <v>47003</v>
+        <v>45303</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="H40" s="7">
         <v>22</v>
       </c>
       <c r="I40" s="7">
-        <v>17291</v>
+        <v>15772</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>475</v>
+        <v>201</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>113</v>
+        <v>920</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>879</v>
+        <v>921</v>
       </c>
       <c r="M40" s="7">
         <v>62</v>
       </c>
       <c r="N40" s="7">
-        <v>64294</v>
+        <v>61075</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>915</v>
+        <v>675</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>916</v>
+        <v>619</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -11791,46 +11797,46 @@
         <v>1</v>
       </c>
       <c r="D41" s="7">
-        <v>1277</v>
+        <v>1265</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>918</v>
+        <v>833</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>919</v>
+        <v>519</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
       </c>
       <c r="I41" s="7">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>920</v>
+        <v>885</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>726</v>
+        <v>200</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
       </c>
       <c r="N41" s="7">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>376</v>
+        <v>923</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>921</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11842,46 +11848,46 @@
         <v>62</v>
       </c>
       <c r="D42" s="7">
-        <v>54029</v>
+        <v>50838</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>923</v>
+        <v>433</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H42" s="7">
         <v>197</v>
       </c>
       <c r="I42" s="7">
-        <v>110830</v>
+        <v>102270</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>820</v>
+        <v>927</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="M42" s="7">
         <v>259</v>
       </c>
       <c r="N42" s="7">
-        <v>164860</v>
+        <v>153109</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11893,7 +11899,7 @@
         <v>210</v>
       </c>
       <c r="D43" s="7">
-        <v>202410</v>
+        <v>197945</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>75</v>
@@ -11908,7 +11914,7 @@
         <v>357</v>
       </c>
       <c r="I43" s="7">
-        <v>230869</v>
+        <v>212377</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>75</v>
@@ -11923,7 +11929,7 @@
         <v>567</v>
       </c>
       <c r="N43" s="7">
-        <v>433279</v>
+        <v>410323</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>75</v>
